--- a/LICENCJAT/confiusion matrix.xlsx
+++ b/LICENCJAT/confiusion matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarolG\Desktop\Math-project\LICENCJAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FE68C6-5D96-4059-91AE-39114FA53AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF527CF-F9B1-4F6E-8AED-2DC0350B7DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02ED7B5D-44A9-48DB-87FA-F2445BC7087E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>prawdziwie pozytywny - TP</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>przewidy-wanie</t>
+  </si>
+  <si>
+    <t>fałszywie negatywny - FP</t>
   </si>
 </sst>
 </file>
@@ -137,6 +140,11 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -152,11 +160,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -474,198 +477,198 @@
   <dimension ref="C9:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I14" sqref="I14:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="1" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="8"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="8"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="8"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="3" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="8"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="8"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="8"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
